--- a/maze_samples.xlsx
+++ b/maze_samples.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>˄</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Visited step</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -363,12 +372,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -393,6 +396,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +993,7 @@
       <c r="D28" s="12"/>
       <c r="F28" s="12"/>
       <c r="H28" s="1"/>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="24" t="s">
         <v>24</v>
       </c>
       <c r="M28" t="s">
@@ -1333,7 +1345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
       <c r="E65" s="3"/>
       <c r="F65" s="1"/>
@@ -1361,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="F66" s="10"/>
       <c r="H66" s="1"/>
@@ -1384,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -1412,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
       <c r="F68" s="10"/>
       <c r="H68" s="1"/>
@@ -1435,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
       <c r="E69" s="10"/>
       <c r="F69" s="1"/>
@@ -1463,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="F70" s="1"/>
       <c r="H70" s="10"/>
@@ -1486,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
       <c r="E71" s="10"/>
       <c r="F71" s="1"/>
@@ -1514,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
       <c r="F72" s="1"/>
       <c r="H72" s="1"/>
@@ -1537,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
       <c r="E73" s="10"/>
       <c r="F73" s="1"/>
@@ -1565,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
       <c r="F74" s="10"/>
       <c r="H74" s="1"/>
@@ -1588,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
       <c r="E75" s="13"/>
       <c r="F75" s="1"/>
@@ -1616,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C79" s="14"/>
       <c r="D79" s="1"/>
       <c r="E79" s="3"/>
@@ -1634,7 +1646,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="36" t="s">
+        <v>28</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="F80" s="10"/>
       <c r="H80" s="1"/>
@@ -1669,7 +1684,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D83" s="1"/>
@@ -1690,7 +1705,7 @@
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="26" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="1"/>
@@ -1722,7 +1737,7 @@
       <c r="L87" s="1"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D88" s="1"/>
@@ -1802,10 +1817,10 @@
       <c r="F3" s="2"/>
       <c r="G3" s="5"/>
       <c r="H3" s="2"/>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="25"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
@@ -1826,7 +1841,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="5"/>
       <c r="H5" s="2"/>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="28" t="s">
         <v>25</v>
       </c>
       <c r="O5" s="18" t="s">
@@ -1841,7 +1856,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="29" t="s">
         <v>26</v>
       </c>
       <c r="O6" s="18" t="s">
@@ -1875,16 +1890,16 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N9" s="32"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N10" s="33" t="s">
+      <c r="N10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="34" t="s">
+      <c r="O10" s="32" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1908,10 +1923,10 @@
       <c r="H13" s="15"/>
       <c r="J13" s="15"/>
       <c r="L13" s="1"/>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="25"/>
+      <c r="O13" s="35"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -1964,7 +1979,7 @@
       <c r="H17" s="15"/>
       <c r="J17" s="15"/>
       <c r="L17" s="1"/>
-      <c r="N17" s="35"/>
+      <c r="N17" s="33"/>
       <c r="O17" s="22" t="s">
         <v>13</v>
       </c>
